--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Desktop\2025\GEOBRAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D064F89B-9858-49E5-83ED-C2FB9C2A979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D3673-5759-4613-AFC1-05208757135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$3:$H$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Plan1!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="155">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -461,6 +461,36 @@
   </si>
   <si>
     <t>NÃO</t>
+  </si>
+  <si>
+    <t>nro</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>FOS</t>
+  </si>
+  <si>
+    <t>VALOR CONTRATO</t>
+  </si>
+  <si>
+    <t>VALOR PAGO</t>
+  </si>
+  <si>
+    <t>SALDO</t>
   </si>
 </sst>
 </file>
@@ -541,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,16 +588,18 @@
     <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,9 +909,9 @@
   </sheetPr>
   <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,29 +940,29 @@
       <c r="A2" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
@@ -945,7 +977,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -971,7 +1003,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -997,7 +1029,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1023,7 +1055,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1049,7 +1081,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1075,7 +1107,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1101,7 +1133,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1127,7 +1159,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1153,7 +1185,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1179,7 +1211,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1205,7 +1237,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1231,7 +1263,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1257,7 +1289,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1283,7 +1315,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1309,7 +1341,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1335,7 +1367,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1361,7 +1393,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1387,7 +1419,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1413,7 +1445,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1439,7 +1471,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1465,7 +1497,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1491,7 +1523,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1517,7 +1549,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1543,7 +1575,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1569,7 +1601,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1595,7 +1627,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1621,7 +1653,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1647,7 +1679,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1673,7 +1705,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1699,7 +1731,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1725,7 +1757,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1751,7 +1783,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1777,7 +1809,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1803,7 +1835,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1829,7 +1861,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1855,7 +1887,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1881,7 +1913,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1907,7 +1939,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1933,7 +1965,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1959,7 +1991,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1985,7 +2017,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2011,7 +2043,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2037,7 +2069,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2063,7 +2095,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2089,7 +2121,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2115,7 +2147,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2141,7 +2173,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2167,7 +2199,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2193,7 +2225,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2219,7 +2251,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2245,7 +2277,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2271,7 +2303,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2297,7 +2329,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2323,7 +2355,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2349,7 +2381,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2375,7 +2407,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2401,7 +2433,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2427,7 +2459,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2453,7 +2485,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2479,7 +2511,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2505,7 +2537,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3010,12 +3042,1596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="11">
+        <v>274770</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5076431.47</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5310660</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2328943.1</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="11">
+        <v>415994.99</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1311577.5</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1224279.8700000001</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="11">
+        <v>988060.58</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="11">
+        <v>621000</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1496880</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1943588.94</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="11">
+        <v>192000</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1902400</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4236574.88</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3297283.23</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="11">
+        <v>4149472.94</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1898820.3</v>
+      </c>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11">
+        <v>135000</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="11">
+        <v>10004185.199999999</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="11">
+        <v>737000</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="11">
+        <v>590000</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1357500</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="11">
+        <v>3270384.36</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="11">
+        <v>705600</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="11">
+        <v>108303.03999999999</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="10">
+        <f>SUM(H59,H58,H42,H41,H33,H32,H26,H23,H22,H21,H20,H16,H12,H10,H6)</f>
+        <v>34213500.759999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D3673-5759-4613-AFC1-05208757135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C6555-2CC0-428C-8EF9-258380B0A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,6 +589,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,8 +600,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,43 +926,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
@@ -3045,7 +3045,7 @@
   <dimension ref="A3:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,9 +3115,9 @@
       <c r="G4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3141,9 +3141,9 @@
       <c r="G5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3167,11 +3167,16 @@
       <c r="G6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>274770</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="8">
+        <v>167567</v>
+      </c>
+      <c r="J6" s="8">
+        <f>H6-I6</f>
+        <v>107203</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3195,9 +3200,12 @@
       <c r="G7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J60" si="0">H7-I7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3221,9 +3229,12 @@
       <c r="G8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3247,9 +3258,12 @@
       <c r="G9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3273,11 +3287,14 @@
       <c r="G10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>5076431.47</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>5076431.47</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3301,9 +3318,12 @@
       <c r="G11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3327,11 +3347,14 @@
       <c r="G12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>5310660</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>5310660</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3355,9 +3378,12 @@
       <c r="G13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3381,9 +3407,12 @@
       <c r="G14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3407,9 +3436,12 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3433,11 +3465,16 @@
       <c r="G16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>2328943.1</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="8">
+        <v>1453410.42</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="0"/>
+        <v>875532.68000000017</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -3461,9 +3498,12 @@
       <c r="G17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -3487,9 +3527,12 @@
       <c r="G18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3513,9 +3556,12 @@
       <c r="G19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -3539,11 +3585,14 @@
       <c r="G20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>415994.99</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <f t="shared" si="0"/>
+        <v>415994.99</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3567,13 +3616,16 @@
       <c r="G21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>1311577.5</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>1224279.8700000001</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="8">
+        <f t="shared" si="0"/>
+        <v>87297.629999999888</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3597,11 +3649,14 @@
       <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>988060.58</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
+        <f t="shared" si="0"/>
+        <v>988060.58</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3625,11 +3680,14 @@
       <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="8">
         <v>621000</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <f t="shared" si="0"/>
+        <v>621000</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3653,11 +3711,14 @@
       <c r="G24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="8">
         <v>1496880</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <f t="shared" si="0"/>
+        <v>1496880</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3681,11 +3742,14 @@
       <c r="G25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
         <v>1943588.94</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <f t="shared" si="0"/>
+        <v>1943588.94</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3709,11 +3773,14 @@
       <c r="G26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="8">
         <v>192000</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <f t="shared" si="0"/>
+        <v>192000</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3737,9 +3804,12 @@
       <c r="G27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3763,9 +3833,12 @@
       <c r="G28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3789,9 +3862,12 @@
       <c r="G29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3815,9 +3891,12 @@
       <c r="G30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3841,9 +3920,12 @@
       <c r="G31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3867,11 +3949,14 @@
       <c r="G32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="8">
         <v>1902400</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <f t="shared" si="0"/>
+        <v>1902400</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3895,11 +3980,14 @@
       <c r="G33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="8">
         <v>4236574.88</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <f t="shared" si="0"/>
+        <v>4236574.88</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3923,9 +4011,12 @@
       <c r="G34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3949,11 +4040,14 @@
       <c r="G35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="8">
         <v>3297283.23</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
+        <f t="shared" si="0"/>
+        <v>3297283.23</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -3977,9 +4071,12 @@
       <c r="G36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -4003,9 +4100,12 @@
       <c r="G37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -4029,13 +4129,16 @@
       <c r="G38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="8">
         <v>4149472.94</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="8">
         <v>1898820.3</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="8">
+        <f t="shared" si="0"/>
+        <v>2250652.6399999997</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -4059,9 +4162,12 @@
       <c r="G39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -4085,11 +4191,14 @@
       <c r="G40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8">
         <v>135000</v>
       </c>
-      <c r="J40" s="11"/>
+      <c r="J40" s="8">
+        <f t="shared" si="0"/>
+        <v>-135000</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -4113,11 +4222,14 @@
       <c r="G41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="8">
         <v>10004185.199999999</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8">
+        <f t="shared" si="0"/>
+        <v>10004185.199999999</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4141,11 +4253,14 @@
       <c r="G42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="8">
         <v>737000</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8">
+        <f t="shared" si="0"/>
+        <v>737000</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -4169,9 +4284,12 @@
       <c r="G43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -4195,11 +4313,14 @@
       <c r="G44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="8">
         <v>590000</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8">
+        <f t="shared" si="0"/>
+        <v>590000</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -4223,9 +4344,12 @@
       <c r="G45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -4249,9 +4373,12 @@
       <c r="G46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -4275,9 +4402,12 @@
       <c r="G47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4301,9 +4431,12 @@
       <c r="G48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4327,11 +4460,14 @@
       <c r="G49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="8">
         <v>1357500</v>
       </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8">
+        <f t="shared" si="0"/>
+        <v>1357500</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4355,9 +4491,12 @@
       <c r="G50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4381,11 +4520,14 @@
       <c r="G51" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="8">
         <v>3270384.36</v>
       </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8">
+        <f t="shared" si="0"/>
+        <v>3270384.36</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4409,9 +4551,12 @@
       <c r="G52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4435,9 +4580,12 @@
       <c r="G53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4461,9 +4609,12 @@
       <c r="G54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -4487,9 +4638,12 @@
       <c r="G55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -4513,9 +4667,12 @@
       <c r="G56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -4539,9 +4696,12 @@
       <c r="G57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -4565,11 +4725,14 @@
       <c r="G58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="8">
         <v>705600</v>
       </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8">
+        <f t="shared" si="0"/>
+        <v>705600</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -4593,11 +4756,14 @@
       <c r="G59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="8">
         <v>108303.03999999999</v>
       </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8">
+        <f t="shared" si="0"/>
+        <v>108303.03999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -4621,12 +4787,15 @@
       <c r="G60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="10">
+      <c r="H65" s="7">
         <f>SUM(H59,H58,H42,H41,H33,H32,H26,H23,H22,H21,H20,H16,H12,H10,H6)</f>
         <v>34213500.759999998</v>
       </c>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C6555-2CC0-428C-8EF9-258380B0A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C4500-890C-481D-9254-7BD49FDA6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="148">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -461,27 +461,6 @@
   </si>
   <si>
     <t>NÃO</t>
-  </si>
-  <si>
-    <t>nro</t>
-  </si>
-  <si>
-    <t>empresa</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>FCS</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>FOS</t>
   </si>
   <si>
     <t>VALOR CONTRATO</t>
@@ -497,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,8 +508,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,6 +590,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,8 +905,8 @@
   <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,1766 +3037,2170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:J65"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1000289.54</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="12">
+        <v>164927.88</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="12">
+        <v>42000</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="12">
+        <v>360693.65</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="8">
-        <v>274770</v>
-      </c>
-      <c r="I6" s="8">
-        <v>167567</v>
-      </c>
-      <c r="J6" s="8">
-        <f>H6-I6</f>
-        <v>107203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8">
-        <f t="shared" ref="J7:J60" si="0">H7-I7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8">
+      <c r="H8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="12">
+        <v>352890</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="12">
+        <v>12394639.09</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="8">
+        <v>274770</v>
+      </c>
+      <c r="J10" s="8">
+        <v>167567</v>
+      </c>
+      <c r="K10" s="8">
+        <f>I10-J10</f>
+        <v>107203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="12">
+        <v>39497311.439999998</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11:K64" si="0">I11-J11</f>
+        <v>39497311.439999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="12">
+        <v>348940.18</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>348940.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="12">
+        <v>270262.92</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>270262.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5076431.47</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>5076431.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1826305.08</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>1826305.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5310660</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>5310660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="12">
+        <v>587996.9</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>587996.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1133476.3400000001</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>1133476.3400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="12">
+        <v>484839.91</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>484839.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2328943.1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1453410.42</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>875532.68000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="12">
+        <v>2435100</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>2435100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="12">
+        <v>178000</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="12">
+        <v>191499.72</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>191499.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="8">
+        <v>415994.99</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>415994.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1311577.5</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1224279.8700000001</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>87297.629999999888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="8">
+        <v>988060.58</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>988060.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="8">
+        <v>621000</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1496880</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>1496880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1943588.94</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>1943588.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="8">
+        <v>192000</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="12">
+        <v>579996</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>579996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="12">
+        <v>848743.93</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>848743.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="12">
+        <v>27705349.800000001</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>27705349.800000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="12">
+        <v>799543.67</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
+        <f t="shared" si="0"/>
+        <v>799543.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1902400</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8">
+        <f t="shared" si="0"/>
+        <v>1902400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="8">
+        <v>4236574.88</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
+        <f t="shared" si="0"/>
+        <v>4236574.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="12">
+        <v>3009330.84</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8">
+        <f t="shared" si="0"/>
+        <v>3009330.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3297283.23</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8">
+        <f t="shared" si="0"/>
+        <v>3297283.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="12">
+        <v>173250</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8">
+        <f t="shared" si="0"/>
+        <v>173250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="12">
+        <v>25205417.800000001</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8">
+        <f t="shared" si="0"/>
+        <v>25205417.800000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="8">
+        <v>4149472.94</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1898820.3</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="0"/>
+        <v>2250652.6399999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="8">
+        <v>180000</v>
+      </c>
+      <c r="J44" s="8">
+        <v>135000</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="8">
+        <v>10004185.199999999</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8">
+        <f t="shared" si="0"/>
+        <v>10004185.199999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="8">
+        <v>737000</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8">
+        <f t="shared" si="0"/>
+        <v>737000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="8">
-        <v>5076431.47</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>5076431.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="8">
-        <v>5310660</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>5310660</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="8">
-        <v>2328943.1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1453410.42</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>875532.68000000017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="8">
-        <v>415994.99</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>415994.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1311577.5</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1224279.8700000001</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>87297.629999999888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="8">
-        <v>988060.58</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8">
-        <f t="shared" si="0"/>
-        <v>988060.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="8">
-        <v>621000</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>621000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1496880</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8">
-        <f t="shared" si="0"/>
-        <v>1496880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1943588.94</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>1943588.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="8">
-        <v>192000</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8">
-        <f t="shared" si="0"/>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1902400</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8">
-        <f t="shared" si="0"/>
-        <v>1902400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="8">
-        <v>4236574.88</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8">
-        <f t="shared" si="0"/>
-        <v>4236574.88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="8">
-        <v>3297283.23</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8">
-        <f t="shared" si="0"/>
-        <v>3297283.23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="8">
-        <v>4149472.94</v>
-      </c>
-      <c r="I38" s="8">
-        <v>1898820.3</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="0"/>
-        <v>2250652.6399999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8">
-        <v>135000</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="0"/>
-        <v>-135000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="8">
-        <v>10004185.199999999</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8">
-        <f t="shared" si="0"/>
-        <v>10004185.199999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="8">
-        <v>737000</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8">
-        <f t="shared" si="0"/>
-        <v>737000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="8">
+      <c r="I48" s="8">
         <v>590000</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8">
+      <c r="J48" s="8"/>
+      <c r="K48" s="8">
         <f t="shared" si="0"/>
         <v>590000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8">
+      <c r="G49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="12">
+        <v>241560</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+        <v>241560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8">
+      <c r="G50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="12">
+        <v>331700</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+        <v>331700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8">
+      <c r="G51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="13">
+        <v>17520</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+        <v>17520</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8">
+      <c r="I52" s="12">
+        <v>6000000</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="8">
+      <c r="I53" s="8">
         <v>1357500</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8">
+      <c r="J53" s="8"/>
+      <c r="K53" s="8">
         <f t="shared" si="0"/>
         <v>1357500</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8">
+      <c r="I54" s="12">
+        <v>2179039.14</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+        <v>2179039.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="G55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="8">
         <v>3270384.36</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8">
+      <c r="J55" s="8"/>
+      <c r="K55" s="8">
         <f t="shared" si="0"/>
         <v>3270384.36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8">
+      <c r="G56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="12">
+        <v>1747000</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+        <v>1747000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8">
+      <c r="G57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="12">
+        <v>610000</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8">
+      <c r="I58" s="12">
+        <v>1711000</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+        <v>1711000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8">
+      <c r="I59" s="12">
+        <v>354000</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+        <v>354000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8">
+      <c r="I60" s="12">
+        <v>10101000</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+        <v>10101000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8">
+      <c r="G61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="12">
+        <v>445000</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+        <v>445000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H58" s="8">
+      <c r="G62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I62" s="8">
         <v>705600</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8">
+      <c r="J62" s="8"/>
+      <c r="K62" s="8">
         <f t="shared" si="0"/>
         <v>705600</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="8">
+      <c r="G63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="8">
         <v>108303.03999999999</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8">
+      <c r="J63" s="8"/>
+      <c r="K63" s="8">
         <f t="shared" si="0"/>
         <v>108303.03999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8">
+      <c r="G64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="12">
+        <v>325999.95</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="7">
-        <f>SUM(H59,H58,H42,H41,H33,H32,H26,H23,H22,H21,H20,H16,H12,H10,H6)</f>
+        <v>325999.95</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="7">
+        <f>SUM(I63,I62,I46,I45,I37,I36,I30,I27,I26,I25,I24,I20,I16,I14,I10)</f>
         <v>34213500.759999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C4500-890C-481D-9254-7BD49FDA6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2376753-B0C6-4412-9FCE-39396EF7C717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="169">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -470,13 +470,79 @@
   </si>
   <si>
     <t>SALDO</t>
+  </si>
+  <si>
+    <t>LOTE 24</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>CÓD. PUG</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>QUANT</t>
+  </si>
+  <si>
+    <t>TUBO GALVANIZADO NBR 5580 CLASSE MÉDIA 5” X 5,00MM ESPESSURA C/ROSCA</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>TUBO GALVANIZADO NBR 5580 CLASSE MÉDIA 4” X 4,50MM ESPESSURA C/ROSCA</t>
+  </si>
+  <si>
+    <t>TUBO GALVANIZADO NBR 5580 CLASSE MÉDIA 3” X 4,00MM ESPESSURA C/ROSCA</t>
+  </si>
+  <si>
+    <t>62367-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA GALVANIZADA PARA TUBO EDUTOR Ø 5” </t>
+  </si>
+  <si>
+    <t>123298-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA GALVANIZADA PARA TUBO EDUTOR Ø 4” </t>
+  </si>
+  <si>
+    <t>335735-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA GALVANIZADA PARA TUBO EDUTOR Ø 3” </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIDEOLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RADAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      -  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALOR UNITÁRIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALOR TOTAL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +579,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -559,10 +632,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,6 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,13 +669,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula 2" xfId="1" xr:uid="{966EBB6B-F28D-4B6B-BFE0-C285D4C2A215}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,43 +997,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
@@ -3042,8 +3118,8 @@
   </sheetPr>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,43 +3138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
@@ -3146,7 +3222,7 @@
       <c r="H4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>1000289.54</v>
       </c>
       <c r="J4" s="6"/>
@@ -3177,7 +3253,7 @@
       <c r="H5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>164927.88</v>
       </c>
       <c r="J5" s="6"/>
@@ -3208,7 +3284,7 @@
       <c r="H6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>42000</v>
       </c>
       <c r="J6" s="6"/>
@@ -3239,7 +3315,7 @@
       <c r="H7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>360693.65</v>
       </c>
       <c r="J7" s="6"/>
@@ -3270,7 +3346,7 @@
       <c r="H8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>352890</v>
       </c>
       <c r="J8" s="8"/>
@@ -3301,7 +3377,7 @@
       <c r="H9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <v>12394639.09</v>
       </c>
       <c r="J9" s="8"/>
@@ -3368,7 +3444,7 @@
       <c r="H11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>39497311.439999998</v>
       </c>
       <c r="J11" s="8"/>
@@ -3402,7 +3478,7 @@
       <c r="H12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>348940.18</v>
       </c>
       <c r="J12" s="8"/>
@@ -3436,7 +3512,7 @@
       <c r="H13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>270262.92</v>
       </c>
       <c r="J13" s="8"/>
@@ -3504,7 +3580,7 @@
       <c r="H15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="9">
         <v>1826305.08</v>
       </c>
       <c r="J15" s="8"/>
@@ -3572,7 +3648,7 @@
       <c r="H17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="9">
         <v>587996.9</v>
       </c>
       <c r="J17" s="8"/>
@@ -3606,7 +3682,7 @@
       <c r="H18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <v>1133476.3400000001</v>
       </c>
       <c r="J18" s="8"/>
@@ -3640,7 +3716,7 @@
       <c r="H19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>484839.91</v>
       </c>
       <c r="J19" s="8"/>
@@ -3710,7 +3786,7 @@
       <c r="H21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>2435100</v>
       </c>
       <c r="J21" s="8"/>
@@ -3744,7 +3820,7 @@
       <c r="H22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <v>178000</v>
       </c>
       <c r="J22" s="8"/>
@@ -3778,7 +3854,7 @@
       <c r="H23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="9">
         <v>191499.72</v>
       </c>
       <c r="J23" s="8"/>
@@ -4052,7 +4128,7 @@
       <c r="H31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="9">
         <v>579996</v>
       </c>
       <c r="J31" s="8"/>
@@ -4086,7 +4162,7 @@
       <c r="H32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="9">
         <v>848743.93</v>
       </c>
       <c r="J32" s="8"/>
@@ -4120,7 +4196,7 @@
       <c r="H33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="9">
         <v>1000000</v>
       </c>
       <c r="J33" s="8"/>
@@ -4154,7 +4230,7 @@
       <c r="H34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="9">
         <v>27705349.800000001</v>
       </c>
       <c r="J34" s="8"/>
@@ -4188,7 +4264,7 @@
       <c r="H35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9">
         <v>799543.67</v>
       </c>
       <c r="J35" s="8"/>
@@ -4290,7 +4366,7 @@
       <c r="H38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <v>3009330.84</v>
       </c>
       <c r="J38" s="8"/>
@@ -4358,7 +4434,7 @@
       <c r="H40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9">
         <v>173250</v>
       </c>
       <c r="J40" s="8"/>
@@ -4392,7 +4468,7 @@
       <c r="H41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="9">
         <v>25205417.800000001</v>
       </c>
       <c r="J41" s="8"/>
@@ -4664,7 +4740,7 @@
       <c r="H49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="9">
         <v>241560</v>
       </c>
       <c r="J49" s="8"/>
@@ -4698,7 +4774,7 @@
       <c r="H50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="9">
         <v>331700</v>
       </c>
       <c r="J50" s="8"/>
@@ -4732,7 +4808,7 @@
       <c r="H51" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="10">
         <v>17520</v>
       </c>
       <c r="J51" s="8"/>
@@ -4766,7 +4842,7 @@
       <c r="H52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="9">
         <v>6000000</v>
       </c>
       <c r="J52" s="8"/>
@@ -4834,7 +4910,7 @@
       <c r="H54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="9">
         <v>2179039.14</v>
       </c>
       <c r="J54" s="8"/>
@@ -4902,7 +4978,7 @@
       <c r="H56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="9">
         <v>1747000</v>
       </c>
       <c r="J56" s="8"/>
@@ -4936,7 +5012,7 @@
       <c r="H57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="9">
         <v>610000</v>
       </c>
       <c r="J57" s="8"/>
@@ -4970,7 +5046,7 @@
       <c r="H58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="9">
         <v>1711000</v>
       </c>
       <c r="J58" s="8"/>
@@ -5004,7 +5080,7 @@
       <c r="H59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="9">
         <v>354000</v>
       </c>
       <c r="J59" s="8"/>
@@ -5038,7 +5114,7 @@
       <c r="H60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="9">
         <v>10101000</v>
       </c>
       <c r="J60" s="8"/>
@@ -5072,7 +5148,7 @@
       <c r="H61" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="9">
         <v>445000</v>
       </c>
       <c r="J61" s="8"/>
@@ -5174,7 +5250,7 @@
       <c r="H64" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="9">
         <v>325999.95</v>
       </c>
       <c r="J64" s="8"/>
@@ -5206,12 +5282,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A8:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>24815</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1924.43</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9622.15</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="7">
+        <v>2912.13</v>
+      </c>
+      <c r="J10" s="14">
+        <v>936.72</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14">
+        <v>24818</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="14">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1171</v>
+      </c>
+      <c r="G11" s="7">
+        <v>117100</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="7">
+        <v>1689.27</v>
+      </c>
+      <c r="J11" s="14">
+        <v>652.72</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>24816</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="14">
+        <v>100</v>
+      </c>
+      <c r="F12" s="14">
+        <v>792.4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>79240</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="7">
+        <v>1137.74</v>
+      </c>
+      <c r="J12" s="14">
+        <v>447.05</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>283.3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2833</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
+        <v>420</v>
+      </c>
+      <c r="J13" s="14">
+        <v>146.6</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="14">
+        <v>195</v>
+      </c>
+      <c r="F14" s="14">
+        <v>105.93</v>
+      </c>
+      <c r="G14" s="7">
+        <v>20656.349999999999</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
+        <v>115.87</v>
+      </c>
+      <c r="J14" s="14">
+        <v>95.98</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="14">
+        <v>120</v>
+      </c>
+      <c r="F15" s="14">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="G15" s="7">
+        <v>8631.6</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <v>75.86</v>
+      </c>
+      <c r="J15" s="14">
+        <v>68</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="7">
+        <v>238083.1</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Desktop\2025\RELATORIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01DC29C-3B9C-4206-B23B-540BAC5D4266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C6B11D-A384-48F1-AA5E-4B60970D8643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2145,9 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,7 +2205,9 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,7 +2517,9 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2603,9 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C6B11D-A384-48F1-AA5E-4B60970D8643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01560076-CC09-4E97-95E3-8B56F7CDAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,7 +1151,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1326,9 @@
       <c r="K15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2117,7 +2123,9 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01560076-CC09-4E97-95E3-8B56F7CDAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3524F6E-9137-45D4-B91E-57782008EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,9 @@
       <c r="K18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3524F6E-9137-45D4-B91E-57782008EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D60E66-6819-48CE-B046-E4951C5F385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1560,9 @@
       <c r="K23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1898,7 +1900,9 @@
       <c r="K35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2040,7 +2044,9 @@
       <c r="K40" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2098,7 +2104,9 @@
       <c r="K42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D60E66-6819-48CE-B046-E4951C5F385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E793F163-9D78-40AD-9229-9C179C794FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1530,9 @@
       <c r="K22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2196,7 +2198,9 @@
       <c r="K45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -2226,7 +2230,9 @@
       <c r="K46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2368,7 +2374,9 @@
       <c r="K51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2538,7 +2546,9 @@
       <c r="K57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E793F163-9D78-40AD-9229-9C179C794FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F47DAC-CE12-4E0F-A430-BD3E02328C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -908,8 +908,8 @@
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1846,9 @@
       <c r="K33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F47DAC-CE12-4E0F-A430-BD3E02328C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03503882-46C8-4086-AFE9-A03454C11AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2140,9 @@
       <c r="K43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2170,7 +2172,9 @@
       <c r="K44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2636,7 +2640,9 @@
       <c r="K60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2666,7 +2672,9 @@
       <c r="K61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03503882-46C8-4086-AFE9-A03454C11AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8B93E-049E-47AD-A0BC-3AD642E1717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="156">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1124,9 @@
       <c r="K8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1154,7 +1156,9 @@
       <c r="K9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8B93E-049E-47AD-A0BC-3AD642E1717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29661A08-AE04-4B9D-9426-5E0C1BFF0D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="157">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>JUN</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +598,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,11 +911,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,9 +926,10 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -933,7 +940,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -952,7 +959,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -983,8 +990,11 @@
       <c r="L3" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1022,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1050,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1078,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1106,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1137,9 @@
       <c r="L8" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1159,8 +1170,9 @@
       <c r="L9" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1200,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1228,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1256,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1273,8 +1285,9 @@
         <v>155</v>
       </c>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1315,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1333,8 +1346,11 @@
       <c r="L15" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1378,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1406,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1421,8 +1437,9 @@
       <c r="L18" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1467,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1495,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1523,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1537,8 +1554,9 @@
       <c r="L22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1569,8 +1587,9 @@
       <c r="L23" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1617,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1645,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1654,7 +1673,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1682,7 +1701,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1729,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1738,7 +1757,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1766,7 +1785,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +1813,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1841,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1853,8 +1872,9 @@
       <c r="L33" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -1879,8 +1899,9 @@
         <v>155</v>
       </c>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1911,8 +1932,11 @@
       <c r="L35" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1940,7 +1964,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1968,7 +1992,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1996,7 +2020,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2048,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2055,8 +2079,11 @@
       <c r="L40" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2084,7 +2111,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2115,8 +2142,11 @@
       <c r="L42" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2147,8 +2177,9 @@
       <c r="L43" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2179,8 +2210,9 @@
       <c r="L44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2211,8 +2243,9 @@
       <c r="L45" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2243,8 +2276,9 @@
       <c r="L46" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2272,7 +2306,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2300,7 +2334,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2328,7 +2362,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2356,7 +2390,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2387,8 +2421,9 @@
       <c r="L51" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2416,7 +2451,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2444,7 +2479,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2472,7 +2507,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2500,7 +2535,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2528,7 +2563,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2559,8 +2594,9 @@
       <c r="L57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2588,7 +2624,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2616,7 +2652,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2647,8 +2683,9 @@
       <c r="L60" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2679,8 +2716,9 @@
       <c r="L61" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -2708,7 +2746,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -2732,7 +2770,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29661A08-AE04-4B9D-9426-5E0C1BFF0D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D43ECF-E211-4EC7-BCBC-F56EE64B3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="157">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,9 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,8 +911,8 @@
   <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +926,7 @@
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -990,7 +987,7 @@
       <c r="L3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1437,7 +1434,9 @@
       <c r="L18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1554,7 +1553,9 @@
       <c r="L22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1587,7 +1588,9 @@
       <c r="L23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1872,7 +1875,9 @@
       <c r="L33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2177,7 +2182,9 @@
       <c r="L43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2210,7 +2217,9 @@
       <c r="L44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2243,7 +2252,9 @@
       <c r="L45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -2276,7 +2287,9 @@
       <c r="L46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2421,7 +2434,9 @@
       <c r="L51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2594,7 +2609,9 @@
       <c r="L57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D43ECF-E211-4EC7-BCBC-F56EE64B3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFDD10-13E1-409A-A36A-AE2C84975ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="157">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -912,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD9"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1167,9 @@
       <c r="L9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2700,7 +2702,9 @@
       <c r="L60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2733,7 +2737,9 @@
       <c r="L61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFDD10-13E1-409A-A36A-AE2C84975ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C692D8-EF45-4FF4-A905-5963A8B84BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="158">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +601,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,11 +914,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +932,7 @@
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -937,7 +943,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -956,7 +962,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -990,8 +996,11 @@
       <c r="M3" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1028,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1056,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1084,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1112,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1135,8 +1144,9 @@
         <v>155</v>
       </c>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1180,9 @@
       <c r="M9" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1210,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1238,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1266,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1285,8 +1296,9 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1314,7 +1326,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1348,8 +1360,11 @@
       <c r="M15" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1392,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1405,7 +1420,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1439,8 +1454,9 @@
       <c r="M18" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1484,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1512,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1540,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1558,8 +1574,9 @@
       <c r="M22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1593,8 +1610,9 @@
       <c r="M23" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1640,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1668,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1678,7 +1696,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1706,7 +1724,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1734,7 +1752,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1780,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1790,7 +1808,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1836,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1846,7 +1864,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1880,8 +1898,9 @@
       <c r="M33" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -1907,8 +1926,9 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1942,8 +1962,9 @@
       <c r="M35" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +1992,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1999,7 +2020,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2027,7 +2048,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2055,7 +2076,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2089,8 +2110,11 @@
       <c r="M40" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2118,7 +2142,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2152,8 +2176,9 @@
       <c r="M42" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2187,8 +2212,9 @@
       <c r="M43" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2222,8 +2248,9 @@
       <c r="M44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2257,8 +2284,9 @@
       <c r="M45" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2292,8 +2320,9 @@
       <c r="M46" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2321,7 +2350,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2349,7 +2378,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2377,7 +2406,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2405,7 +2434,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2439,8 +2468,9 @@
       <c r="M51" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2468,7 +2498,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2496,7 +2526,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2524,7 +2554,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2582,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2580,7 +2610,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2614,8 +2644,9 @@
       <c r="M57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2643,7 +2674,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2671,7 +2702,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2705,8 +2736,9 @@
       <c r="M60" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2740,8 +2772,9 @@
       <c r="M61" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -2769,7 +2802,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -2793,7 +2826,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C692D8-EF45-4FF4-A905-5963A8B84BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD41D23-6258-4889-993C-6645873870CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="158">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -579,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,9 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +993,7 @@
       <c r="M3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1454,7 +1451,9 @@
       <c r="M18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1574,7 +1573,9 @@
       <c r="M22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1962,7 +1963,9 @@
       <c r="M35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2176,7 +2179,9 @@
       <c r="M42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2320,7 +2325,9 @@
       <c r="M46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2468,7 +2475,9 @@
       <c r="M51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD41D23-6258-4889-993C-6645873870CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16232B3E-EFF9-4F1F-8EA1-4EC719B9E764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,8 +914,8 @@
   <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16232B3E-EFF9-4F1F-8EA1-4EC719B9E764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD4777-7022-46F0-A9A2-BADC92E7CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="158">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -538,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -579,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +608,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,7 +927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,12 +1300,12 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="K13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1608,10 +1620,10 @@
       <c r="L23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="M23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1922,12 +1934,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="K34" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2289,7 +2301,9 @@
       <c r="M45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -2653,7 +2667,9 @@
       <c r="M57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2745,7 +2761,9 @@
       <c r="M60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2781,7 +2799,9 @@
       <c r="M61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD4777-7022-46F0-A9A2-BADC92E7CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFF2A4-08CA-47D5-9E35-B4AF8C92D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="158">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -603,17 +603,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,8 +926,8 @@
   <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,39 +942,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
         <v>125</v>
       </c>
@@ -1303,9 +1303,9 @@
       <c r="K13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1620,10 +1620,10 @@
       <c r="L23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N23" s="9"/>
+      <c r="M23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1911,7 +1911,9 @@
       <c r="M33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1934,12 +1936,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="K34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2229,7 +2231,9 @@
       <c r="M43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2265,7 +2269,9 @@
       <c r="M44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFF2A4-08CA-47D5-9E35-B4AF8C92D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488C626-C887-4E0A-B9D9-0629E149DDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488C626-C887-4E0A-B9D9-0629E149DDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9D319E-06B9-4886-B887-091F37660CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="159">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +616,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,11 +929,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:O214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +947,7 @@
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -952,7 +958,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -971,7 +977,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1008,8 +1014,11 @@
       <c r="N3" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1046,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1074,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1102,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1130,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1163,9 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1190,8 +1200,9 @@
         <v>155</v>
       </c>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1230,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1258,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1286,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1306,8 +1317,9 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1372,8 +1384,11 @@
       <c r="N15" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1401,7 +1416,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1444,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1466,8 +1481,11 @@
       <c r="N18" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1513,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1541,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1569,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1588,8 +1606,11 @@
       <c r="N22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1624,8 +1645,9 @@
         <v>155</v>
       </c>
       <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1653,7 +1675,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1703,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1731,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1737,7 +1759,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1765,7 +1787,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1793,7 +1815,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1843,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1849,7 +1871,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1877,7 +1899,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1914,8 +1936,11 @@
       <c r="N33" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -1942,8 +1967,9 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1980,8 +2006,11 @@
       <c r="N35" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2009,7 +2038,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +2066,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2065,7 +2094,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2093,7 +2122,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2130,8 +2159,11 @@
       <c r="N40" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2159,7 +2191,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2196,8 +2228,9 @@
       <c r="N42" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2234,8 +2267,9 @@
       <c r="N43" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2272,8 +2306,9 @@
       <c r="N44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2310,8 +2345,9 @@
       <c r="N45" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2348,8 +2384,9 @@
       <c r="N46" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2377,7 +2414,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2405,7 +2442,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2433,7 +2470,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2461,7 +2498,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2498,8 +2535,11 @@
       <c r="N51" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2527,7 +2567,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2555,7 +2595,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2583,7 +2623,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2651,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2639,7 +2679,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2676,8 +2716,9 @@
       <c r="N57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2705,7 +2746,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2733,7 +2774,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2770,8 +2811,9 @@
       <c r="N60" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2808,8 +2850,9 @@
       <c r="N61" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -2837,7 +2880,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -2861,7 +2904,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.2.3\rh\LEIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD23C6DB-28BE-45D3-A9CE-91B9AD54B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,10 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$G$71</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Plan1!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -525,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,13 +601,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,9 +626,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,9 +666,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,7 +703,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,7 +738,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -916,15 +911,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,39 +933,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>123</v>
       </c>
@@ -984,900 +979,900 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="E20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="E24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="E27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="F29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="F30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="F40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="C41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="F41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1900,7 +1895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1923,7 +1918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -1946,7 +1941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>128</v>
@@ -1992,7 +1987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2010,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2038,7 +2033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v>107</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>142</v>
@@ -2084,7 +2079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>107</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>130</v>
@@ -2176,7 +2171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2210,7 +2205,7 @@
         <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -2233,7 +2228,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>113</v>
@@ -2245,7 +2240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2302,7 +2297,7 @@
         <v>108</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>142</v>
@@ -2314,7 +2309,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>134</v>
       </c>
@@ -2337,14 +2332,14 @@
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>112</v>
@@ -2352,7 +2347,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>137</v>
       </c>
@@ -2375,11 +2370,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2391,10 +2386,10 @@
       <c r="E65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>151</v>
       </c>
@@ -2440,7 +2435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -2463,7 +2458,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>153</v>
       </c>
@@ -2482,7 +2477,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>154</v>
       </c>
@@ -2505,7 +2500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>155</v>
       </c>
@@ -2530,309 +2525,309 @@
     </row>
     <row r="72" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
@@ -3159,7 +3154,14 @@
       <c r="A213" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G65"/>
+  <autoFilter ref="A3:G71" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DENIZE M. SODRÉ DE OLIVEIRA"/>
+        <filter val="DENIZE MARIA SODRÉ DE OLIVEIRA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D2:E2"/>
@@ -3174,7 +3176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3186,7 +3188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
